--- a/data/trans_dic/P39A4_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,04; 95,4</t>
+          <t>87,74; 95,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,82; 97,27</t>
+          <t>93,72; 97,2</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,47; 95,75</t>
+          <t>91,47; 95,82</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,2; 99,25</t>
+          <t>94,56; 99,09</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,91; 98,42</t>
+          <t>95,94; 98,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,24; 98,56</t>
+          <t>96,27; 98,49</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,63; 93,93</t>
+          <t>87,85; 93,79</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,71; 90,78</t>
+          <t>84,97; 90,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,03; 91,32</t>
+          <t>86,83; 91,29</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,41; 99,4</t>
+          <t>95,34; 99,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,46; 97,15</t>
+          <t>78,82; 97,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,07; 97,71</t>
+          <t>86,45; 97,67</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,94; 99,3</t>
+          <t>93,57; 99,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,77; 99,79</t>
+          <t>96,8; 99,69</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,85; 97,42</t>
+          <t>91,93; 97,17</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,38; 98,35</t>
+          <t>94,14; 98,39</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,95; 97,35</t>
+          <t>94,0; 97,45</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,17; 83,01</t>
+          <t>74,86; 82,91</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,12; 89,8</t>
+          <t>80,18; 90,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,22; 86,21</t>
+          <t>79,2; 86,41</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>93,52; 97,34</t>
+          <t>93,35; 97,43</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>95,9; 98,09</t>
+          <t>95,95; 98,03</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>95,3; 97,38</t>
+          <t>95,45; 97,41</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>91,48; 93,7</t>
+          <t>91,48; 93,77</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>91,37; 93,82</t>
+          <t>91,34; 93,76</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>91,76; 93,46</t>
+          <t>91,85; 93,5</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A4_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,74; 95,3</t>
+          <t>87,04; 95,4</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,72; 97,2</t>
+          <t>93,82; 97,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,47; 95,82</t>
+          <t>91,47; 95,75</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,56; 99,09</t>
+          <t>95,2; 99,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,94; 98,44</t>
+          <t>95,91; 98,42</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,27; 98,49</t>
+          <t>96,24; 98,56</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,85; 93,79</t>
+          <t>87,63; 93,93</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,97; 90,87</t>
+          <t>84,71; 90,78</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>86,83; 91,29</t>
+          <t>87,03; 91,32</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,34; 99,37</t>
+          <t>95,41; 99,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,82; 97,13</t>
+          <t>78,46; 97,15</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,45; 97,67</t>
+          <t>86,07; 97,71</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,57; 99,31</t>
+          <t>93,94; 99,3</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,8; 99,69</t>
+          <t>96,77; 99,79</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,93; 97,17</t>
+          <t>91,85; 97,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,14; 98,39</t>
+          <t>94,38; 98,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>94,0; 97,45</t>
+          <t>93,95; 97,35</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,86; 82,91</t>
+          <t>75,17; 83,01</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,18; 90,49</t>
+          <t>80,12; 89,8</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,2; 86,41</t>
+          <t>79,22; 86,21</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>93,35; 97,43</t>
+          <t>93,52; 97,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>95,95; 98,03</t>
+          <t>95,9; 98,09</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>95,45; 97,41</t>
+          <t>95,3; 97,38</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>91,48; 93,77</t>
+          <t>91,48; 93,7</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>91,34; 93,76</t>
+          <t>91,37; 93,82</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>91,85; 93,5</t>
+          <t>91,76; 93,46</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A4_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>91,44%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>95,79%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>93,98%</t>
+          <t>93,52%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>87,04; 95,4</t>
+          <t>84,01; 95,16</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,82; 97,27</t>
+          <t>93,92; 97,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>91,47; 95,75</t>
+          <t>89,63; 95,47</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>97,91%</t>
+          <t>97,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>97,45%</t>
+          <t>97,41%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>97,68%</t>
+          <t>97,66%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>95,2; 99,25</t>
+          <t>94,89; 99,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,91; 98,42</t>
+          <t>95,83; 98,39</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,24; 98,56</t>
+          <t>96,09; 98,58</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>91,11%</t>
+          <t>91,25%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>87,92%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>89,41%</t>
+          <t>89,46%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,63; 93,93</t>
+          <t>87,69; 94,02</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,71; 90,78</t>
+          <t>84,56; 90,66</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,03; 91,32</t>
+          <t>87,1; 91,35</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>98,22%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>92,33%</t>
+          <t>78,9%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>86,54%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,41; 99,4</t>
+          <t>95,48; 99,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>78,46; 97,15</t>
+          <t>45,38; 97,14</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>86,07; 97,71</t>
+          <t>59,79; 97,69</t>
         </is>
       </c>
     </row>
@@ -761,12 +761,12 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>97,84%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>98,75%</t>
+          <t>98,84%</t>
         </is>
       </c>
     </row>
@@ -784,12 +784,12 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>93,94; 99,3</t>
+          <t>94,45; 99,29</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,77; 99,79</t>
+          <t>96,99; 99,79</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>95,24%</t>
+          <t>95,27%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>96,06%</t>
+          <t>96,02%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,85; 97,42</t>
+          <t>91,84; 97,48</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,38; 98,35</t>
+          <t>94,28; 98,33</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,95; 97,35</t>
+          <t>93,87; 97,34</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>79,2%</t>
+          <t>79,22%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>86,0%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>81,91%</t>
+          <t>83,12%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>75,17; 83,01</t>
+          <t>74,97; 83,18</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,12; 89,8</t>
+          <t>80,26; 93,07</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,22; 86,21</t>
+          <t>79,51; 89,78</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>95,83%</t>
+          <t>96,88%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>97,13%</t>
+          <t>97,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>96,5%</t>
+          <t>96,97%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>93,52; 97,34</t>
+          <t>94,63; 98,75</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>95,9; 98,09</t>
+          <t>95,88; 98,05</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>95,3; 97,38</t>
+          <t>95,79; 98,19</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>92,62%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>92,87%</t>
+          <t>91,46%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>92,14%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>91,48; 93,7</t>
+          <t>91,63; 94,69</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>91,37; 93,82</t>
+          <t>83,55; 93,62</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>91,76; 93,46</t>
+          <t>87,98; 93,55</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P39A4_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P39A4_2023-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>84,01; 95,16</t>
+          <t>84,49; 95,18</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>93,92; 97,33</t>
+          <t>93,84; 97,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>89,63; 95,47</t>
+          <t>89,51; 95,64</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,89; 99,24</t>
+          <t>94,57; 99,08</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>95,83; 98,39</t>
+          <t>95,89; 98,49</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,09; 98,58</t>
+          <t>96,02; 98,58</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>87,69; 94,02</t>
+          <t>87,81; 94,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>84,56; 90,66</t>
+          <t>84,35; 90,41</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>87,1; 91,35</t>
+          <t>87,33; 91,6</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>95,48; 99,42</t>
+          <t>95,48; 99,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>45,38; 97,14</t>
+          <t>42,97; 97,1</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>59,79; 97,69</t>
+          <t>60,01; 97,63</t>
         </is>
       </c>
     </row>
@@ -784,19 +785,19 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,45; 99,29</t>
+          <t>94,73; 99,27</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>96,99; 99,79</t>
+          <t>96,79; 99,62</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>91,84; 97,48</t>
+          <t>91,88; 97,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>94,28; 98,33</t>
+          <t>93,78; 98,25</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>93,87; 97,34</t>
+          <t>94,02; 97,39</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>74,97; 83,18</t>
+          <t>74,64; 82,78</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>80,26; 93,07</t>
+          <t>80,37; 93,45</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>79,51; 89,78</t>
+          <t>79,22; 89,36</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>94,63; 98,75</t>
+          <t>94,84; 98,78</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>95,88; 98,05</t>
+          <t>95,97; 98,0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>95,79; 98,19</t>
+          <t>95,82; 98,34</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>91,63; 94,69</t>
+          <t>91,53; 94,55</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>83,55; 93,62</t>
+          <t>83,21; 93,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>87,98; 93,55</t>
+          <t>88,25; 93,4</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que sí diría que estar con dolor o malestar en los brazos o en el pecho es un síntoma de que a alguien le está dando un ataque al corazón</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>507</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>815</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>284109</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>271919</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>556028</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>262530; 295745</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>266359; 275965</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>532200; 568633</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>673</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1040</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>500461</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>486767</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>987228</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>483448; 506496</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>479167; 492173</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>970659; 996589</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>731</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>270626</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>281994</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>552621</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>260443; 278810</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>270863; 290332</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>539443; 565795</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>709</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>245620</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>301439</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>547060</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>238778; 248670</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>164165; 370981</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>379367; 617146</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>476</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>748</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>175367</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>200142</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>375509</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>174134; 175367</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>193775; 203064</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>367727; 378472</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>692</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>236816</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>222651</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>459466</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>228398; 241953</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>215628; 225892</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>449868; 466009</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>446</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>724</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1170</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>478647</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>703749</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1182396</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>450946; 500121</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>657715; 764740</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1126963; 1271130</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>648</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>939</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>1587</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>816609</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>636402</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1453011</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>799418; 832597</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>629035; 642383</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>1435728; 1473404</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>2891</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>4601</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>7492</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>3008256</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>3105063</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>6113319</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>2965068; 3063135</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>2824859; 3182742</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>5855033; 6196508</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>